--- a/01_Organisation/05_Bestellungen/Bestellformular_SysProjekt_18_Team10_Elektronik.xlsx
+++ b/01_Organisation/05_Bestellungen/Bestellformular_SysProjekt_18_Team10_Elektronik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donkey Kong\Documents\GitHub\SysP18_1cv\01_Organisation\05_Bestellungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1488EE9-C42B-4625-ABAD-12034922B8A3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760AC734-E9E8-4624-8122-01B1A62FB361}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="117">
   <si>
     <t>Lieferant</t>
   </si>
@@ -358,6 +358,21 @@
   </si>
   <si>
     <t>Korrekt?</t>
+  </si>
+  <si>
+    <t>HLC1395</t>
+  </si>
+  <si>
+    <t>Optoreflektor Sensor</t>
+  </si>
+  <si>
+    <t>&lt;- Vorschlag</t>
+  </si>
+  <si>
+    <t>Farnell/Buchs?</t>
+  </si>
+  <si>
+    <t>&lt;- Dioden ersatz möglich anstelle von DIOTEC-SK34-SMA?</t>
   </si>
 </sst>
 </file>
@@ -368,9 +383,9 @@
     <numFmt numFmtId="164" formatCode="_ &quot;SFr.&quot;\ * #,##0.00_ ;_ &quot;SFr.&quot;\ * \-#,##0.00_ ;_ &quot;SFr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;SFr.&quot;\ #,##0.00"/>
-    <numFmt numFmtId="171" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +455,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -554,7 +574,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -573,21 +593,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -617,9 +625,6 @@
     </xf>
     <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -645,13 +650,35 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -994,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,11 +1041,11 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="46">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="12"/>
       <c r="F1" t="s">
         <v>48</v>
       </c>
@@ -1027,11 +1054,11 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="46"/>
+      <c r="E2" s="14"/>
       <c r="F2" t="s">
         <v>59</v>
       </c>
@@ -1040,11 +1067,11 @@
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="46"/>
+      <c r="E3" s="13"/>
       <c r="F3" t="s">
         <v>50</v>
       </c>
@@ -1053,12 +1080,12 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="48">
         <f ca="1">TODAY()</f>
         <v>43195</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="48"/>
+      <c r="E4" s="43"/>
       <c r="F4" t="s">
         <v>107</v>
       </c>
@@ -1085,1018 +1112,1023 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="17">
         <v>4</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="19">
         <v>0.375</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="20">
         <f>B8*E8</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <v>6</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="20">
         <f t="shared" ref="F9:F57" si="0">B9*E9</f>
         <v>0.42000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="21">
-        <v>1</v>
-      </c>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="20">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="28">
-        <v>1</v>
-      </c>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="24">
+        <v>1</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="26">
         <v>0.24</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="27">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="21">
-        <v>1</v>
-      </c>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="19">
         <v>0.54400000000000004</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
         <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="21">
-        <v>1</v>
-      </c>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="19">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="20">
         <f t="shared" si="0"/>
         <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="21">
-        <v>1</v>
-      </c>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="17">
+        <v>1</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="19">
         <v>0.20499999999999999</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="20">
         <f t="shared" si="0"/>
         <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="21">
-        <v>1</v>
-      </c>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="17">
+        <v>1</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="19">
         <v>0.20499999999999999</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="20">
         <f t="shared" si="0"/>
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="28">
-        <v>1</v>
-      </c>
-      <c r="C16" s="29" t="s">
+      <c r="B16" s="24">
+        <v>1</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="26">
         <v>0.5</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="27">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="40">
-        <v>1</v>
-      </c>
-      <c r="C17" s="41">
+      <c r="B17" s="35">
+        <v>1</v>
+      </c>
+      <c r="C17" s="36">
         <v>1924193</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="37">
         <v>0.7</v>
       </c>
-      <c r="F17" s="43"/>
-    </row>
-    <row r="18" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+      <c r="F17" s="38"/>
+    </row>
+    <row r="18" spans="1:8" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="35">
         <v>3</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="36">
         <v>2306504</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="37">
         <v>0.36799999999999999</v>
       </c>
-      <c r="F18" s="43"/>
-    </row>
-    <row r="19" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="40">
-        <v>1</v>
-      </c>
-      <c r="C19" s="41">
+      <c r="B19" s="35">
+        <v>1</v>
+      </c>
+      <c r="C19" s="36">
         <v>1770071</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="37">
         <v>1.73</v>
       </c>
-      <c r="F19" s="43"/>
-    </row>
-    <row r="20" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+      <c r="F19" s="38"/>
+    </row>
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="35">
         <v>2</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="36">
         <v>2305962</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="37">
         <v>0.316</v>
       </c>
-      <c r="F20" s="43"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="17">
         <v>3</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="19">
         <v>2.13</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="20">
         <f t="shared" si="0"/>
         <v>6.39</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:8" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="40">
-        <v>1</v>
-      </c>
-      <c r="C22" s="44">
+      <c r="B22" s="35">
+        <v>1</v>
+      </c>
+      <c r="C22" s="39">
         <v>1770072</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="37">
         <v>2.13</v>
       </c>
-      <c r="F22" s="43"/>
-    </row>
-    <row r="23" spans="1:8" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="24">
         <v>4</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="26">
         <v>0.32100000000000001</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="27">
         <f t="shared" si="0"/>
         <v>1.284</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="17">
         <v>4</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="19">
         <v>0.19</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="20">
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="21">
-        <v>1</v>
-      </c>
-      <c r="C25" s="26" t="s">
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="19">
         <v>0.75</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="20">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="17">
         <v>2</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="19">
         <v>0.96</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="20">
         <f t="shared" si="0"/>
         <v>1.92</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="17">
         <v>10</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="19">
         <v>0.159</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="20">
         <f t="shared" si="0"/>
         <v>1.59</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="17">
         <v>4</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="19">
         <v>0.17399999999999999</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="20">
         <f t="shared" si="0"/>
         <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="21">
-        <v>1</v>
-      </c>
-      <c r="C29" s="26" t="s">
+      <c r="B29" s="17">
+        <v>1</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="19">
         <v>0.04</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="20">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="21">
-        <v>1</v>
-      </c>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="17">
+        <v>1</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="19">
         <v>0.11</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="20">
         <f t="shared" si="0"/>
         <v>0.11</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="21">
-        <v>1</v>
-      </c>
-      <c r="C31" s="26" t="s">
+      <c r="B31" s="17">
+        <v>1</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="19">
         <v>0.108</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="20">
         <f t="shared" si="0"/>
         <v>0.108</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="21">
-        <v>1</v>
-      </c>
-      <c r="C32" s="26" t="s">
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="19">
         <v>0.6</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="20">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="21">
-        <v>1</v>
-      </c>
-      <c r="C33" s="26" t="s">
+      <c r="B33" s="17">
+        <v>1</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="19">
         <v>0.67</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="20">
         <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="21">
-        <v>1</v>
-      </c>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="17">
+        <v>1</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="19">
         <v>0.54</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="20">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="17">
         <v>2</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="20">
         <f t="shared" ref="F37:F38" si="1">B37*E37</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="17">
         <v>7</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="19">
         <v>0.377</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="20">
         <f t="shared" si="1"/>
         <v>2.6390000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="17">
         <v>2</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="19">
         <v>0.96</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="20">
         <f t="shared" ref="F39" si="2">B39*E39</f>
         <v>1.92</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="17">
         <v>2</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="19">
         <v>0.17</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="20">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+    <row r="41" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="24">
         <v>2</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="26">
         <v>0.44</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F41" s="27">
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
+      <c r="I41" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="17">
         <v>3</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="19">
         <v>0.24</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="20">
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="21">
-        <v>1</v>
-      </c>
-      <c r="C43" s="26" t="s">
+      <c r="B43" s="17">
+        <v>1</v>
+      </c>
+      <c r="C43" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="19">
         <v>0.32</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="20">
         <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="39" t="s">
+    <row r="44" spans="1:9" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="40">
+      <c r="B44" s="35">
         <v>7</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C44" s="39">
         <v>2305962</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="37">
         <v>0.316</v>
       </c>
-      <c r="F44" s="43"/>
-    </row>
-    <row r="45" spans="1:8" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="39" t="s">
+      <c r="F44" s="38"/>
+    </row>
+    <row r="45" spans="1:9" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="40">
-        <v>1</v>
-      </c>
-      <c r="C45" s="41">
+      <c r="B45" s="35">
+        <v>1</v>
+      </c>
+      <c r="C45" s="36">
         <v>1924193</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="42">
+      <c r="E45" s="37">
         <v>0.7</v>
       </c>
-      <c r="F45" s="43"/>
-    </row>
-    <row r="46" spans="1:8" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="27" t="s">
+      <c r="F45" s="38"/>
+    </row>
+    <row r="46" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="24">
         <v>0</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="26">
         <v>0.48399999999999999</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F46" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="21">
-        <v>1</v>
-      </c>
-      <c r="C47" s="26" t="s">
+      <c r="B47" s="17">
+        <v>1</v>
+      </c>
+      <c r="C47" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="19">
         <v>0.19</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="20">
         <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="21">
-        <v>1</v>
-      </c>
-      <c r="C48" s="26" t="s">
+      <c r="B48" s="17">
+        <v>1</v>
+      </c>
+      <c r="C48" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="20">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="21">
-        <v>1</v>
-      </c>
-      <c r="C49" s="26" t="s">
+      <c r="B49" s="17">
+        <v>1</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="19">
         <v>0.19</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="20">
         <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="21">
-        <v>1</v>
-      </c>
-      <c r="C50" s="26" t="s">
+      <c r="B50" s="17">
+        <v>1</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="19">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="20">
         <f t="shared" si="0"/>
         <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B51" s="17">
         <v>6</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="19">
         <v>0.159</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="20">
         <f t="shared" ref="F51" si="3">B51*E51</f>
         <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="21">
+      <c r="B52" s="17">
         <v>4</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="19">
         <v>0.27400000000000002</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="20">
         <f t="shared" si="0"/>
         <v>1.0960000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="11" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="27" t="s">
+    <row r="53" spans="1:10" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="24">
+        <v>0</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="26">
+        <v>1.3</v>
+      </c>
+      <c r="F53" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="10" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="28">
+      <c r="B54" s="31">
+        <v>1</v>
+      </c>
+      <c r="C54" s="40">
+        <v>1685713</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="32">
+        <v>1.92</v>
+      </c>
+      <c r="F54" s="33">
+        <f t="shared" si="0"/>
+        <v>1.92</v>
+      </c>
+      <c r="H54" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="17">
+        <v>4</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="19">
         <v>0</v>
       </c>
-      <c r="C53" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E53" s="30">
-        <v>1.3</v>
-      </c>
-      <c r="F53" s="31">
+      <c r="F55" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="36">
-        <v>1</v>
-      </c>
-      <c r="C54" s="45">
-        <v>1685713</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="37">
-        <v>1.92</v>
-      </c>
-      <c r="F54" s="38">
-        <f t="shared" si="0"/>
-        <v>1.92</v>
-      </c>
-      <c r="H54" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J54" s="46"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="21">
-        <v>4</v>
-      </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55" s="23">
-        <v>0</v>
-      </c>
-      <c r="F55" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="22">
+      <c r="B56" s="18">
         <v>2</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="19">
         <v>1.41</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="20">
         <f t="shared" si="0"/>
         <v>2.82</v>
       </c>
@@ -2105,25 +2137,43 @@
       <c r="A57" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B57" s="17">
         <v>3</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D57" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="19">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="20">
         <f t="shared" si="0"/>
         <v>6.0299999999999994</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F58" s="7"/>
+      <c r="A58" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="50">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="51">
+        <v>2.1</v>
+      </c>
+      <c r="F58" s="7">
+        <f>B58*E58</f>
+        <v>6.3000000000000007</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F59" s="7"/>
@@ -2133,7 +2183,7 @@
       <c r="H60" t="s">
         <v>106</v>
       </c>
-      <c r="I60" s="47">
+      <c r="I60" s="41">
         <f>SUM(F37:F57)+SUM(F8:F34)</f>
         <v>40.186000000000007</v>
       </c>

--- a/01_Organisation/05_Bestellungen/Bestellformular_SysProjekt_18_Team10_Elektronik.xlsx
+++ b/01_Organisation/05_Bestellungen/Bestellformular_SysProjekt_18_Team10_Elektronik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donkey Kong\Documents\GitHub\SysP18_1cv\01_Organisation\05_Bestellungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760AC734-E9E8-4624-8122-01B1A62FB361}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E38E61-C439-40A2-8A60-CC1EEE3645AC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -656,21 +656,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -679,6 +664,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,10 +1041,10 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="46">
+      <c r="B1" s="50">
         <v>10</v>
       </c>
-      <c r="C1" s="46"/>
+      <c r="C1" s="50"/>
       <c r="E1" s="12"/>
       <c r="F1" t="s">
         <v>48</v>
@@ -1054,10 +1054,10 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="50"/>
       <c r="E2" s="14"/>
       <c r="F2" t="s">
         <v>59</v>
@@ -1067,10 +1067,10 @@
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="50"/>
       <c r="E3" s="13"/>
       <c r="F3" t="s">
         <v>50</v>
@@ -1080,11 +1080,11 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="52">
         <f ca="1">TODAY()</f>
         <v>43195</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="52"/>
       <c r="E4" s="43"/>
       <c r="F4" t="s">
         <v>107</v>
@@ -1112,14 +1112,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
@@ -1691,14 +1691,14 @@
       <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
@@ -2089,7 +2089,7 @@
       <c r="I54" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="53" t="s">
+      <c r="J54" s="48" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2155,10 +2155,10 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="50">
+      <c r="B58" s="45">
         <v>3</v>
       </c>
       <c r="C58" t="s">
@@ -2167,7 +2167,7 @@
       <c r="D58" t="s">
         <v>113</v>
       </c>
-      <c r="E58" s="51">
+      <c r="E58" s="46">
         <v>2.1</v>
       </c>
       <c r="F58" s="7">

--- a/01_Organisation/05_Bestellungen/Bestellformular_SysProjekt_18_Team10_Elektronik.xlsx
+++ b/01_Organisation/05_Bestellungen/Bestellformular_SysProjekt_18_Team10_Elektronik.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donkey Kong\Documents\GitHub\SysP18_1cv\01_Organisation\05_Bestellungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luz_w\Desktop\SysP18_1cv\01_Organisation\05_Bestellungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E38E61-C439-40A2-8A60-CC1EEE3645AC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1D6E8D-F32E-4898-ADC2-656500420414}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bestellformular_SysProjekt" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="118">
   <si>
     <t>Lieferant</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>&lt;- Dioden ersatz möglich anstelle von DIOTEC-SK34-SMA?</t>
+  </si>
+  <si>
+    <t>5er buchse</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
     <numFmt numFmtId="166" formatCode="&quot;SFr.&quot;\ #,##0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +465,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -574,7 +589,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -679,11 +694,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -699,7 +737,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1019,25 +1057,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.90625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1"/>
-    <col min="4" max="4" width="95.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="37.453125" customWidth="1"/>
+    <col min="4" max="4" width="95.08984375" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" customWidth="1"/>
+    <col min="9" max="9" width="21.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1050,7 +1088,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1063,7 +1101,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1076,7 +1114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1090,8 +1128,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53" t="s">
         <v>32</v>
       </c>
@@ -1121,7 +1159,7 @@
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>76</v>
       </c>
@@ -1142,7 +1180,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>76</v>
       </c>
@@ -1159,11 +1197,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F9" s="20">
-        <f t="shared" ref="F9:F57" si="0">B9*E9</f>
+        <f t="shared" ref="F9:F58" si="0">B9*E9</f>
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>76</v>
       </c>
@@ -1184,7 +1222,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>76</v>
       </c>
@@ -1208,7 +1246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>76</v>
       </c>
@@ -1229,7 +1267,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>76</v>
       </c>
@@ -1250,7 +1288,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>76</v>
       </c>
@@ -1271,7 +1309,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>76</v>
       </c>
@@ -1292,7 +1330,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
         <v>76</v>
       </c>
@@ -1316,7 +1354,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
         <v>12</v>
       </c>
@@ -1334,7 +1372,7 @@
       </c>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:8" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
         <v>12</v>
       </c>
@@ -1352,7 +1390,7 @@
       </c>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
@@ -1370,7 +1408,7 @@
       </c>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
@@ -1388,7 +1426,7 @@
       </c>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>76</v>
       </c>
@@ -1409,7 +1447,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
         <v>12</v>
       </c>
@@ -1427,157 +1465,146 @@
       </c>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+    <row r="23" spans="1:8" s="66" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="61"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+    </row>
+    <row r="24" spans="1:8" s="60" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B24" s="55">
         <v>4</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C24" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D24" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E24" s="58">
         <v>0.32100000000000001</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F24" s="59">
         <f t="shared" si="0"/>
         <v>1.284</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H24" s="60" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="17">
-        <v>4</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="19">
-        <v>0.19</v>
-      </c>
-      <c r="F24" s="20">
-        <f t="shared" si="0"/>
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B25" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="19">
-        <v>0.75</v>
+        <v>0.19</v>
       </c>
       <c r="F25" s="20">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B26" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="19">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F26" s="20">
         <f t="shared" si="0"/>
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B27" s="17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E27" s="19">
-        <v>0.159</v>
+        <v>0.96</v>
       </c>
       <c r="F27" s="20">
         <f t="shared" si="0"/>
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B28" s="17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="19">
-        <v>0.17399999999999999</v>
+        <v>0.159</v>
       </c>
       <c r="F28" s="20">
         <f t="shared" si="0"/>
-        <v>0.69599999999999995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" s="19">
-        <v>0.04</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="F29" s="20">
         <f t="shared" si="0"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
         <v>76</v>
       </c>
@@ -1585,20 +1612,20 @@
         <v>1</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" s="19">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="F30" s="20">
         <f t="shared" si="0"/>
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>76</v>
       </c>
@@ -1606,41 +1633,41 @@
         <v>1</v>
       </c>
       <c r="C31" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0.11</v>
+      </c>
+      <c r="F31" s="20">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D32" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E32" s="19">
         <v>0.108</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F32" s="20">
         <f t="shared" si="0"/>
         <v>0.108</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="17">
-        <v>1</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="19">
-        <v>0.6</v>
-      </c>
-      <c r="F32" s="20">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
         <v>27</v>
       </c>
@@ -1648,20 +1675,20 @@
         <v>1</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="E33" s="19">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F33" s="20">
         <f t="shared" si="0"/>
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>27</v>
       </c>
@@ -1669,272 +1696,272 @@
         <v>1</v>
       </c>
       <c r="C34" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0.67</v>
+      </c>
+      <c r="F34" s="20">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="17">
+        <v>1</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D35" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E35" s="19">
         <v>0.54</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F35" s="20">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="49" t="s">
+    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="17">
-        <v>2</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F37" s="20">
-        <f t="shared" ref="F37:F38" si="1">B37*E37</f>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="17">
+        <v>2</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F38" s="20">
+        <f t="shared" ref="F38:F39" si="1">B38*E38</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="17">
         <v>7</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C39" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D39" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E39" s="19">
         <v>0.377</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F39" s="20">
         <f t="shared" si="1"/>
         <v>2.6390000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="17">
-        <v>2</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="19">
-        <v>0.96</v>
-      </c>
-      <c r="F39" s="20">
-        <f t="shared" ref="F39" si="2">B39*E39</f>
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="17">
         <v>2</v>
       </c>
       <c r="C40" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="19">
+        <v>0.96</v>
+      </c>
+      <c r="F40" s="20">
+        <f t="shared" ref="F40" si="2">B40*E40</f>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="17">
+        <v>2</v>
+      </c>
+      <c r="C41" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D41" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E41" s="19">
         <v>0.17</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F41" s="20">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
+    <row r="42" spans="1:9" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B42" s="24">
         <v>2</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C42" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D42" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E42" s="26">
         <v>0.44</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F42" s="27">
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H42" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I42" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="17">
-        <v>3</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="19">
-        <v>0.24</v>
-      </c>
-      <c r="F42" s="20">
-        <f t="shared" si="0"/>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B43" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="F43" s="20">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="17">
+        <v>1</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D44" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E44" s="19">
         <v>0.32</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F44" s="20">
         <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="35">
-        <v>7</v>
-      </c>
-      <c r="C44" s="39">
-        <v>2305962</v>
-      </c>
-      <c r="D44" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="37">
-        <v>0.316</v>
-      </c>
-      <c r="F44" s="38"/>
-    </row>
-    <row r="45" spans="1:9" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="35">
-        <v>1</v>
-      </c>
-      <c r="C45" s="36">
+        <v>7</v>
+      </c>
+      <c r="C45" s="39">
+        <v>2305962</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="37">
+        <v>0.316</v>
+      </c>
+      <c r="F45" s="38"/>
+    </row>
+    <row r="46" spans="1:9" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="35">
+        <v>1</v>
+      </c>
+      <c r="C46" s="36">
         <v>1924193</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D46" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E46" s="37">
         <v>0.7</v>
       </c>
-      <c r="F45" s="38"/>
-    </row>
-    <row r="46" spans="1:9" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
+      <c r="F46" s="38"/>
+    </row>
+    <row r="47" spans="1:9" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B47" s="24">
         <v>0</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C47" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D47" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="26">
+      <c r="E47" s="26">
         <v>0.48399999999999999</v>
       </c>
-      <c r="F46" s="27">
+      <c r="F47" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H47" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="17">
-        <v>1</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="19">
-        <v>0.19</v>
-      </c>
-      <c r="F47" s="20">
-        <f t="shared" si="0"/>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>27</v>
       </c>
@@ -1942,20 +1969,20 @@
         <v>1</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="19">
-        <v>0.55000000000000004</v>
+        <v>0.19</v>
       </c>
       <c r="F48" s="20">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>27</v>
       </c>
@@ -1963,20 +1990,20 @@
         <v>1</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="19">
-        <v>0.19</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F49" s="20">
         <f t="shared" si="0"/>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
         <v>27</v>
       </c>
@@ -1984,237 +2011,258 @@
         <v>1</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E50" s="19">
-        <v>0.14099999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="F50" s="20">
         <f t="shared" si="0"/>
-        <v>0.14099999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B51" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E51" s="19">
-        <v>0.159</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="F51" s="20">
-        <f t="shared" ref="F51" si="3">B51*E51</f>
-        <v>0.95399999999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="17">
+        <v>6</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="19">
+        <v>0.159</v>
+      </c>
+      <c r="F52" s="20">
+        <f t="shared" ref="F52" si="3">B52*E52</f>
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="17">
         <v>4</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C53" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D53" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E53" s="19">
         <v>0.27400000000000002</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F53" s="20">
         <f t="shared" si="0"/>
         <v>1.0960000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="8" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
+    <row r="54" spans="1:10" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B54" s="24">
         <v>0</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C54" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D54" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="26">
+      <c r="E54" s="26">
         <v>1.3</v>
       </c>
-      <c r="F53" s="27">
+      <c r="F54" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H54" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="10" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="30" t="s">
+    <row r="55" spans="1:10" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="31">
-        <v>1</v>
-      </c>
-      <c r="C54" s="40">
+      <c r="B55" s="31">
+        <v>1</v>
+      </c>
+      <c r="C55" s="40">
         <v>1685713</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D55" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="32">
+      <c r="E55" s="32">
         <v>1.92</v>
       </c>
-      <c r="F54" s="33">
+      <c r="F55" s="33">
         <f t="shared" si="0"/>
         <v>1.92</v>
       </c>
-      <c r="H54" s="44" t="s">
+      <c r="H55" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="I54" s="8" t="s">
+      <c r="I55" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="48" t="s">
+      <c r="J55" s="48" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+    <row r="56" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B56" s="17">
         <v>4</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="18" t="s">
+      <c r="C56" s="22"/>
+      <c r="D56" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E56" s="19">
         <v>0</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F56" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="18" t="s">
+    <row r="57" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B57" s="18">
         <v>2</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D57" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E57" s="19">
         <v>1.41</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F57" s="20">
         <f t="shared" si="0"/>
         <v>2.82</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="58" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B58" s="17">
         <v>3</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E58" s="19">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F58" s="20">
         <f t="shared" si="0"/>
         <v>6.0299999999999994</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="47" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="45">
+      <c r="B59" s="45">
         <v>3</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>112</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>113</v>
       </c>
-      <c r="E58" s="46">
+      <c r="E59" s="46">
         <v>2.1</v>
       </c>
-      <c r="F58" s="7">
-        <f>B58*E58</f>
+      <c r="F59" s="7">
+        <f>B59*E59</f>
         <v>6.3000000000000007</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F60" s="7"/>
-      <c r="H60" t="s">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F61" s="7"/>
+      <c r="H61" t="s">
         <v>106</v>
       </c>
-      <c r="I60" s="41">
-        <f>SUM(F37:F57)+SUM(F8:F34)</f>
+      <c r="I61" s="41">
+        <f>SUM(F38:F58)+SUM(F8:F35)</f>
         <v>40.186000000000007</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F69" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2238,7 +2286,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2250,7 +2298,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
